--- a/pidis/expdata/80098.xlsx
+++ b/pidis/expdata/80098.xlsx
@@ -2826,7 +2826,7 @@
         <v>401</v>
       </c>
       <c r="M2">
-        <v>-3.859971680504831e-06</v>
+        <v>-0.0002904135387725019</v>
       </c>
       <c r="N2">
         <v>-2.190684962950932e-05</v>
@@ -4028,7 +4028,7 @@
         <v>401</v>
       </c>
       <c r="M3">
-        <v>-9.184521514906399e-07</v>
+        <v>-6.174581030538483e-05</v>
       </c>
       <c r="N3">
         <v>-9.838997477064364e-06</v>
@@ -5230,7 +5230,7 @@
         <v>401</v>
       </c>
       <c r="M4">
-        <v>-1.473552301640668e-06</v>
+        <v>-7.443316601455316e-05</v>
       </c>
       <c r="N4">
         <v>-1.849846482748412e-05</v>
@@ -6432,7 +6432,7 @@
         <v>401</v>
       </c>
       <c r="M5">
-        <v>-1.490243991535385e-07</v>
+        <v>-9.536251126783337e-06</v>
       </c>
       <c r="N5">
         <v>-2.817487169235803e-06</v>
@@ -7634,7 +7634,7 @@
         <v>401</v>
       </c>
       <c r="M6">
-        <v>-1.799605192715133e-07</v>
+        <v>-9.313438178787415e-06</v>
       </c>
       <c r="N6">
         <v>-4.316621973297123e-06</v>
@@ -8836,7 +8836,7 @@
         <v>401</v>
       </c>
       <c r="M7">
-        <v>4.152860236269828e-08</v>
+        <v>3.563025767082479e-06</v>
       </c>
       <c r="N7">
         <v>1.311016968931341e-06</v>
@@ -10038,7 +10038,7 @@
         <v>401</v>
       </c>
       <c r="M8">
-        <v>8.957131387026406e-08</v>
+        <v>6.560322621972531e-06</v>
       </c>
       <c r="N8">
         <v>3.830013351081657e-06</v>
@@ -11240,7 +11240,7 @@
         <v>401</v>
       </c>
       <c r="M9">
-        <v>1.627831250789576e-07</v>
+        <v>1.083204049781713e-05</v>
       </c>
       <c r="N9">
         <v>1.03486637503579e-05</v>
@@ -12442,7 +12442,7 @@
         <v>401</v>
       </c>
       <c r="M10">
-        <v>7.267997664346826e-08</v>
+        <v>9.189187872135358e-06</v>
       </c>
       <c r="N10">
         <v>3.656103619426805e-06</v>
@@ -13644,7 +13644,7 @@
         <v>401</v>
       </c>
       <c r="M11">
-        <v>1.190059870963046e-07</v>
+        <v>1.339747794268523e-05</v>
       </c>
       <c r="N11">
         <v>8.573861273099004e-06</v>
@@ -14846,7 +14846,7 @@
         <v>401</v>
       </c>
       <c r="M12">
-        <v>1.897799016562217e-07</v>
+        <v>2.012234337106609e-05</v>
       </c>
       <c r="N12">
         <v>2.101805643197532e-05</v>
@@ -16048,7 +16048,7 @@
         <v>401</v>
       </c>
       <c r="M13">
-        <v>2.997075999040657e-07</v>
+        <v>3.098468941483419e-05</v>
       </c>
       <c r="N13">
         <v>5.721187406662603e-05</v>
@@ -17250,7 +17250,7 @@
         <v>401</v>
       </c>
       <c r="M14">
-        <v>6.275262800232753e-08</v>
+        <v>1.211525451985046e-05</v>
       </c>
       <c r="N14">
         <v>4.841933319225102e-06</v>
@@ -18452,7 +18452,7 @@
         <v>401</v>
       </c>
       <c r="M15">
-        <v>9.577589821452963e-08</v>
+        <v>1.714396241774503e-05</v>
       </c>
       <c r="N15">
         <v>1.117530550401057e-05</v>
@@ -19654,7 +19654,7 @@
         <v>401</v>
       </c>
       <c r="M16">
-        <v>1.447366166373635e-07</v>
+        <v>2.515425394055705e-05</v>
       </c>
       <c r="N16">
         <v>2.69946529895098e-05</v>
@@ -20856,7 +20856,7 @@
         <v>401</v>
       </c>
       <c r="M17">
-        <v>2.242771538650218e-07</v>
+        <v>3.868313621666662e-05</v>
       </c>
       <c r="N17">
         <v>7.023625937854e-05</v>
@@ -22058,7 +22058,7 @@
         <v>401</v>
       </c>
       <c r="M18">
-        <v>4.541369715376031e-08</v>
+        <v>1.367332486990051e-05</v>
       </c>
       <c r="N18">
         <v>5.246766664894634e-06</v>
@@ -23260,7 +23260,7 @@
         <v>401</v>
       </c>
       <c r="M19">
-        <v>6.652592230999123e-08</v>
+        <v>1.940822964531028e-05</v>
       </c>
       <c r="N19">
         <v>1.232330443244976e-05</v>
@@ -24462,7 +24462,7 @@
         <v>401</v>
       </c>
       <c r="M20">
-        <v>9.761204617423113e-08</v>
+        <v>2.841515567889617e-05</v>
       </c>
       <c r="N20">
         <v>3.005516440756207e-05</v>
@@ -25664,7 +25664,7 @@
         <v>401</v>
       </c>
       <c r="M21">
-        <v>1.478338449790701e-07</v>
+        <v>4.327468478351915e-05</v>
       </c>
       <c r="N21">
         <v>7.704346482906132e-05</v>
@@ -26866,7 +26866,7 @@
         <v>401</v>
       </c>
       <c r="M22">
-        <v>2.303944964472083e-07</v>
+        <v>6.811164587705404e-05</v>
       </c>
       <c r="N22">
         <v>0.0002083820028098447</v>
@@ -28068,7 +28068,7 @@
         <v>401</v>
       </c>
       <c r="M23">
-        <v>2.977611413217572e-08</v>
+        <v>1.443835873782055e-05</v>
       </c>
       <c r="N23">
         <v>5.15334794963725e-06</v>
@@ -29270,7 +29270,7 @@
         <v>401</v>
       </c>
       <c r="M24">
-        <v>4.24692026545607e-08</v>
+        <v>2.085815927268897e-05</v>
       </c>
       <c r="N24">
         <v>1.252725368079031e-05</v>
@@ -30472,7 +30472,7 @@
         <v>401</v>
       </c>
       <c r="M25">
-        <v>6.168921970417804e-08</v>
+        <v>3.08624010350525e-05</v>
       </c>
       <c r="N25">
         <v>3.12849067092466e-05</v>
@@ -31674,7 +31674,7 @@
         <v>401</v>
       </c>
       <c r="M26">
-        <v>9.289958078023125e-08</v>
+        <v>4.707574028252657e-05</v>
       </c>
       <c r="N26">
         <v>8.054624926943784e-05</v>
@@ -32876,7 +32876,7 @@
         <v>401</v>
       </c>
       <c r="M27">
-        <v>1.445710762298408e-07</v>
+        <v>7.424662146459115e-05</v>
       </c>
       <c r="N27">
         <v>0.000214525545151977</v>
@@ -34078,7 +34078,7 @@
         <v>401</v>
       </c>
       <c r="M28">
-        <v>1.784167874026923e-08</v>
+        <v>1.476737774739783e-05</v>
       </c>
       <c r="N28">
         <v>4.767493408718421e-06</v>
@@ -35280,7 +35280,7 @@
         <v>401</v>
       </c>
       <c r="M29">
-        <v>2.53970106057428e-08</v>
+        <v>2.188222519402278e-05</v>
       </c>
       <c r="N29">
         <v>1.214254491515439e-05</v>
@@ -36482,7 +36482,7 @@
         <v>401</v>
       </c>
       <c r="M30">
-        <v>3.730252128934243e-08</v>
+        <v>3.294204024385208e-05</v>
       </c>
       <c r="N30">
         <v>3.123973104141935e-05</v>
@@ -37684,7 +37684,7 @@
         <v>401</v>
       </c>
       <c r="M31">
-        <v>5.67983769658451e-08</v>
+        <v>5.076123477482567e-05</v>
       </c>
       <c r="N31">
         <v>8.146204734620473e-05</v>
@@ -38886,7 +38886,7 @@
         <v>401</v>
       </c>
       <c r="M32">
-        <v>8.863100147995028e-08</v>
+        <v>8.003440613862913e-05</v>
       </c>
       <c r="N32">
         <v>0.0002161639957969474</v>
@@ -40088,7 +40088,7 @@
         <v>401</v>
       </c>
       <c r="M33">
-        <v>1.440842586130692e-07</v>
+        <v>0.0001309247288881192</v>
       </c>
       <c r="N33">
         <v>0.0005999805983240455</v>
@@ -41290,7 +41290,7 @@
         <v>401</v>
       </c>
       <c r="M34">
-        <v>9.799220247606469e-09</v>
+        <v>1.468695701158283e-05</v>
       </c>
       <c r="N34">
         <v>4.182768587072509e-06</v>
@@ -42492,7 +42492,7 @@
         <v>401</v>
       </c>
       <c r="M35">
-        <v>1.452437629257871e-08</v>
+        <v>2.254321471709588e-05</v>
       </c>
       <c r="N35">
         <v>1.126753507799512e-05</v>
@@ -43694,7 +43694,7 @@
         <v>401</v>
       </c>
       <c r="M36">
-        <v>2.207062225860069e-08</v>
+        <v>3.477600528708352e-05</v>
       </c>
       <c r="N36">
         <v>2.988296347648009e-05</v>
@@ -44896,7 +44896,7 @@
         <v>401</v>
       </c>
       <c r="M37">
-        <v>3.437367812073719e-08</v>
+        <v>5.443493209895516e-05</v>
       </c>
       <c r="N37">
         <v>7.888678802238385e-05</v>
@@ -46098,7 +46098,7 @@
         <v>401</v>
       </c>
       <c r="M38">
-        <v>5.434232215216053e-08</v>
+        <v>8.636753596512598e-05</v>
       </c>
       <c r="N38">
         <v>0.0002093884212182</v>
@@ -47300,7 +47300,7 @@
         <v>401</v>
       </c>
       <c r="M39">
-        <v>8.8472275917178e-08</v>
+        <v>0.0001408071708964094</v>
       </c>
       <c r="N39">
         <v>0.0005686829564401875</v>
@@ -48502,7 +48502,7 @@
         <v>401</v>
       </c>
       <c r="M40">
-        <v>1.476464668646212e-07</v>
+        <v>0.0002350950933279668</v>
       </c>
       <c r="N40">
         <v>0.001610704288855434</v>
@@ -49704,7 +49704,7 @@
         <v>401</v>
       </c>
       <c r="M41">
-        <v>8.368168904174332e-09</v>
+        <v>2.319945101980454e-05</v>
       </c>
       <c r="N41">
         <v>1.012357490537325e-05</v>
@@ -50906,7 +50906,7 @@
         <v>401</v>
       </c>
       <c r="M42">
-        <v>1.319486110365793e-08</v>
+        <v>3.669516905528654e-05</v>
       </c>
       <c r="N42">
         <v>2.72152034661126e-05</v>
@@ -52108,7 +52108,7 @@
         <v>401</v>
       </c>
       <c r="M43">
-        <v>2.099489291763049e-08</v>
+        <v>5.839577001613817e-05</v>
       </c>
       <c r="N43">
         <v>7.191957244211322e-05</v>
@@ -53310,7 +53310,7 @@
         <v>401</v>
       </c>
       <c r="M44">
-        <v>3.363338626664482e-08</v>
+        <v>9.351001546050284e-05</v>
       </c>
       <c r="N44">
         <v>0.0001896715074459866</v>
@@ -54512,7 +54512,7 @@
         <v>401</v>
       </c>
       <c r="M45">
-        <v>5.472935163353452e-08</v>
+        <v>0.0001520709154193203</v>
       </c>
       <c r="N45">
         <v>0.0005045676005178112</v>
@@ -55714,7 +55714,7 @@
         <v>401</v>
       </c>
       <c r="M46">
-        <v>9.163804965792336e-08</v>
+        <v>0.0002545584438310831</v>
       </c>
       <c r="N46">
         <v>0.001380120863515946</v>
@@ -56916,7 +56916,7 @@
         <v>401</v>
       </c>
       <c r="M47">
-        <v>8.16655613538882e-09</v>
+        <v>4.05822875970264e-05</v>
       </c>
       <c r="N47">
         <v>2.393101449400473e-05</v>
@@ -58118,7 +58118,7 @@
         <v>401</v>
       </c>
       <c r="M48">
-        <v>1.326511487763337e-08</v>
+        <v>6.591996117967335e-05</v>
       </c>
       <c r="N48">
         <v>6.244270650391479e-05</v>
@@ -59320,7 +59320,7 @@
         <v>401</v>
       </c>
       <c r="M49">
-        <v>2.156747600278545e-08</v>
+        <v>0.0001071694298776831</v>
       </c>
       <c r="N49">
         <v>0.0001623168853465393</v>
@@ -60522,7 +60522,7 @@
         <v>401</v>
       </c>
       <c r="M50">
-        <v>3.529744952340988e-08</v>
+        <v>0.0001754777877601972</v>
       </c>
       <c r="N50">
         <v>0.0004232936089283927</v>
@@ -61724,7 +61724,7 @@
         <v>401</v>
       </c>
       <c r="M51">
-        <v>5.878316090455608e-08</v>
+        <v>0.0002925307803840486</v>
       </c>
       <c r="N51">
         <v>0.001121618021862366</v>
@@ -62926,7 +62926,7 @@
         <v>401</v>
       </c>
       <c r="M52">
-        <v>1.010595619991199e-07</v>
+        <v>0.0005040965366325874</v>
       </c>
       <c r="N52">
         <v>0.003076047418359353</v>
@@ -64128,7 +64128,7 @@
         <v>401</v>
       </c>
       <c r="M53">
-        <v>1.024557732730732e-08</v>
+        <v>9.451138770405654e-05</v>
       </c>
       <c r="N53">
         <v>5.165497938967834e-05</v>
@@ -65330,7 +65330,7 @@
         <v>401</v>
       </c>
       <c r="M54">
-        <v>1.706782023710846e-08</v>
+        <v>0.0001583243109449002</v>
       </c>
       <c r="N54">
         <v>0.0001322901655712176</v>
@@ -66532,7 +66532,7 @@
         <v>401</v>
       </c>
       <c r="M55">
-        <v>2.837576477856814e-08</v>
+        <v>0.0002645475805912666</v>
       </c>
       <c r="N55">
         <v>0.000339075170585183</v>
@@ -67734,7 +67734,7 @@
         <v>401</v>
       </c>
       <c r="M56">
-        <v>4.746683092708223e-08</v>
+        <v>0.0004445264372171178</v>
       </c>
       <c r="N56">
         <v>0.0008766526742842966</v>
@@ -68936,7 +68936,7 @@
         <v>401</v>
       </c>
       <c r="M57">
-        <v>8.121775278296914e-08</v>
+        <v>0.0007636531591137303</v>
       </c>
       <c r="N57">
         <v>0.002321251942542084</v>
@@ -70138,7 +70138,7 @@
         <v>401</v>
       </c>
       <c r="M58">
-        <v>1.468182009219457e-07</v>
+        <v>0.001381637991097598</v>
       </c>
       <c r="N58">
         <v>0.006358851502564654</v>
